--- a/Excel/Working/Time Series Forecasting - Multiplicative Working 10Nov2019.xlsx
+++ b/Excel/Working/Time Series Forecasting - Multiplicative Working 10Nov2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__PrepCourses\Time Series Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\YT_Time_Series_Forecasting\Excel\Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B6B29-3017-49D2-93EA-9BE9E210C4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC772D0-7660-4C08-ADA1-8A6A42A6C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Step5" sheetId="9" r:id="rId6"/>
     <sheet name="Step6" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -552,9 +555,6 @@
     <t>https://machinelearningmastery.com/arima-for-time-series-forecasting-with-python/#targetText=ARIMA%20is%20an%20acronym%20that,time%20series%20data%20with%20Python.</t>
   </si>
   <si>
-    <t>http://www.youtube.com/fxexcel</t>
-  </si>
-  <si>
     <t>Create a forecast for 4 quarters ahead</t>
   </si>
   <si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Calculate the following</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/KunaalNaik</t>
   </si>
 </sst>
 </file>
@@ -7100,27 +7103,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8633F3-9582-4A2B-B02D-C905D9B0170C}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -7129,7 +7132,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -7153,7 +7156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -7161,7 +7164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -7177,7 +7180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -7185,12 +7188,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>77</v>
       </c>
@@ -7213,21 +7216,21 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7330,7 +7333,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7381,7 +7384,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7399,7 +7402,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7468,7 +7471,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -7519,28 +7522,28 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -7564,13 +7567,13 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
         <v>1</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N2">
         <v>1</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>2</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N4">
         <v>3</v>
       </c>
@@ -7605,9 +7608,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F5" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -7621,7 +7624,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>9</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -7671,7 +7674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7690,7 +7693,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7709,7 +7712,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7731,7 +7734,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7753,7 +7756,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7775,7 +7778,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7797,7 +7800,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -7819,7 +7822,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7841,7 +7844,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -7863,7 +7866,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -7885,7 +7888,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -7907,7 +7910,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -7929,7 +7932,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -7951,7 +7954,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -7973,7 +7976,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -7994,7 +7997,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -8014,7 +8017,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I24" s="3"/>
     </row>
   </sheetData>
@@ -8036,16 +8039,16 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
         <v>1</v>
       </c>
@@ -8057,7 +8060,7 @@
       </c>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N2">
         <v>1</v>
       </c>
@@ -8070,7 +8073,7 @@
       </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>2</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>0.8753311401992373</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>79</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>1.0704855495527206</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N5">
         <v>4</v>
       </c>
@@ -8100,7 +8103,7 @@
         <v>1.1088348507133197</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -8131,10 +8134,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8195,7 +8198,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8221,7 +8224,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8259,7 +8262,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8297,7 +8300,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8335,7 +8338,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8373,7 +8376,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -8411,7 +8414,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -8449,7 +8452,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -8487,7 +8490,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -8525,7 +8528,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -8563,7 +8566,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -8601,7 +8604,7 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -8639,7 +8642,7 @@
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -8677,7 +8680,7 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -8708,7 +8711,7 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -8735,7 +8738,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>17</v>
       </c>
@@ -8754,7 +8757,7 @@
       </c>
       <c r="K25" s="25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>18</v>
       </c>
@@ -8773,7 +8776,7 @@
       </c>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>19</v>
       </c>
@@ -8792,7 +8795,7 @@
       </c>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>20</v>
       </c>
@@ -8829,29 +8832,29 @@
       <selection activeCell="A17" sqref="A17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>0.9625189588137405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>0.92644274607588706</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>0.92118865650987902</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>2035.4099923617032</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -8891,12 +8894,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>35</v>
@@ -8914,7 +8917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>2.5232728874048511E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
@@ -8950,7 +8953,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
@@ -8964,8 +8967,8 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>40</v>
@@ -8992,7 +8995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>73436.073883640813</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>4</v>
       </c>
@@ -9063,17 +9066,17 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N1" t="s">
         <v>1</v>
       </c>
@@ -9087,7 +9090,7 @@
         <v>71146.775747923501</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N2">
         <v>1</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>1465.7942050008401</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>2</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>0.8753311401992373</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N4">
         <v>3</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>1.0704855495527206</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N5">
         <v>4</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>1.1088348507133197</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -9145,10 +9148,10 @@
         <v>22</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -9164,7 +9167,7 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -9232,7 +9235,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>2</v>
       </c>
@@ -9262,7 +9265,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>3</v>
       </c>
@@ -9304,7 +9307,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>4</v>
       </c>
@@ -9346,7 +9349,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>5</v>
       </c>
@@ -9388,7 +9391,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>6</v>
       </c>
@@ -9430,7 +9433,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>7</v>
       </c>
@@ -9472,7 +9475,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>8</v>
       </c>
@@ -9514,7 +9517,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>9</v>
       </c>
@@ -9556,7 +9559,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>10</v>
       </c>
@@ -9598,7 +9601,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>11</v>
       </c>
@@ -9640,7 +9643,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>12</v>
       </c>
@@ -9682,7 +9685,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>13</v>
       </c>
@@ -9724,7 +9727,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>14</v>
       </c>
@@ -9766,7 +9769,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <v>15</v>
       </c>
@@ -9801,7 +9804,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <v>16</v>
       </c>
@@ -9832,7 +9835,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>17</v>
       </c>
@@ -9855,7 +9858,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>18</v>
       </c>
@@ -9878,7 +9881,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <v>19</v>
       </c>
@@ -9901,7 +9904,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>20</v>
       </c>
@@ -9943,20 +9946,20 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M1" s="5" t="s">
         <v>69</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>71146.775747923501</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M2" s="5" t="s">
         <v>70</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>1465.7942050008401</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P3">
         <v>2</v>
       </c>
@@ -10008,7 +10011,7 @@
         <v>0.8753311401992373</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P4">
         <v>3</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>1.0704855495527206</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P5">
         <v>4</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>1.1088348507133197</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -10042,7 +10045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -10057,13 +10060,13 @@
         <v>12</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10153,7 +10156,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10189,7 +10192,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10237,7 +10240,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10285,7 +10288,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10333,7 +10336,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10381,7 +10384,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -10429,7 +10432,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -10477,7 +10480,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10525,7 +10528,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -10573,7 +10576,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -10621,7 +10624,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -10669,7 +10672,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -10717,7 +10720,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -10765,7 +10768,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -10806,7 +10809,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10843,7 +10846,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -10869,7 +10872,7 @@
         <v>91062.524688592064</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>85371.983966624073</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>105974.71412177889</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
